--- a/lidar_settings.xlsx
+++ b/lidar_settings.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\Documents\2019Host\neo\LiDAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903519F6-2981-4E14-BCC5-BC7C598FC90E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB68992-C117-4E31-AD80-B65D5BFA785F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{41D32DC6-A733-4811-B5BB-B5FA4829A855}"/>
+    <workbookView xWindow="-25185" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{41D32DC6-A733-4811-B5BB-B5FA4829A855}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <t>Leap seconds</t>
   </si>
   <si>
-    <t>The amount of leap seconds can be found in the INS log file as "UTC offset"</t>
+    <t>The amount of leap seconds at the moment of flight can be found in the INS log file as "UTC offset"</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lidar_settings.xlsx
+++ b/lidar_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\Documents\2019Host\neo\LiDAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB68992-C117-4E31-AD80-B65D5BFA785F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B840E832-84AD-47FD-AE29-D3AC6C1D560C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{41D32DC6-A733-4811-B5BB-B5FA4829A855}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{41D32DC6-A733-4811-B5BB-B5FA4829A855}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
-  <si>
-    <t>Value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>LiDAR settings</t>
   </si>
@@ -87,37 +84,6 @@
     <t>All times in nanoseconds</t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>#How long to wait before deciding that all packets in a FOV has been recieved</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF6A9955"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>#Dual mode = 2, single mode = 1. The programs understands the number of returns themself, this is used for testing</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> #Must be divisible by 60 and in the range [300, 1200], The LiDAR won't accept anything else. </t>
-  </si>
-  <si>
     <t>LiDAR lever arm</t>
   </si>
   <si>
@@ -134,31 +100,88 @@
   </si>
   <si>
     <t>The amount of leap seconds at the moment of flight can be found in the INS log file as "UTC offset"</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The spots containing the settings values have to be in the exact spot that they are at now (B6 -&gt; B25) </t>
+  </si>
+  <si>
+    <t>The names of the settings do not matter and can be changed to preference, now they have the names used in the lidar_values_and_settings.py file</t>
+  </si>
+  <si>
+    <t>To change their spot, you must also change the corresponding reference in lidar_values_and_settings.py</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>Must be divisible by 60 and in the range [300, 1200], The LiDAR won't accept anything else. </t>
+  </si>
+  <si>
+    <t>Dual mode = 2, single mode = 1. The programs understands the number of returns themself, this is used for testing</t>
+  </si>
+  <si>
+    <t>How long to wait before deciding that all packets in a FOV has been recieved</t>
+  </si>
+  <si>
+    <t>So far I have used INS data boresight calibrated for the HySpex camera, so my lever arm is to the center of the HySpex camera</t>
+  </si>
+  <si>
+    <t>LAS file settings</t>
+  </si>
+  <si>
+    <t>scale x</t>
+  </si>
+  <si>
+    <t>scale y</t>
+  </si>
+  <si>
+    <t>scale z</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>max x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max y </t>
+  </si>
+  <si>
+    <t>max z</t>
+  </si>
+  <si>
+    <t>Our values are originally in mm, scale of 0.001 will convert them to meters</t>
+  </si>
+  <si>
+    <t>The limit before applying offset in mm, 1 million corresponds to 1 kilometer</t>
+  </si>
+  <si>
+    <t>Point format</t>
+  </si>
+  <si>
+    <t>The las point format you want to save the files in (1-10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6A9955"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,14 +204,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5E462F-5D4E-489F-A29E-C545ED798189}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,173 +532,292 @@
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>300</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f>10^7</f>
+        <v>10000000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>10000000</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
       </c>
       <c r="B13">
         <v>2368</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>8308</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>-35.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>215.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>270</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>180</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1E-3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <f>B33</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f>B33</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <f>B37</f>
+        <v>1000000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <f>B37</f>
+        <v>1000000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/lidar_settings.xlsx
+++ b/lidar_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\Documents\2019Host\neo\LiDAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B840E832-84AD-47FD-AE29-D3AC6C1D560C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7073D893-FB9D-4571-806C-AF3A2E1329FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{41D32DC6-A733-4811-B5BB-B5FA4829A855}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>LiDAR settings</t>
   </si>
@@ -168,14 +168,23 @@
     <t>Point format</t>
   </si>
   <si>
-    <t>The las point format you want to save the files in (1-10)</t>
+    <t>Remember to save the Settings file before running the  python programs</t>
+  </si>
+  <si>
+    <t>The las point format you want to save the files in (1-10), you will currently get the same information whatever format you choose. And you will get an error if it's a format without the necessary fields like gps time</t>
+  </si>
+  <si>
+    <t>m/mm</t>
+  </si>
+  <si>
+    <t>r/min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +192,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,13 +234,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5E462F-5D4E-489F-A29E-C545ED798189}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +590,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
@@ -581,8 +618,14 @@
       <c r="B7">
         <v>300</v>
       </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
       <c r="D7" t="s">
         <v>28</v>
+      </c>
+      <c r="S7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -612,7 +655,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -641,7 +684,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
@@ -718,7 +761,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -737,7 +780,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -749,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,6 +802,9 @@
       <c r="B33">
         <v>1E-3</v>
       </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
       <c r="D33" t="s">
         <v>42</v>
       </c>
@@ -771,6 +817,9 @@
         <f>B33</f>
         <v>1E-3</v>
       </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -780,6 +829,9 @@
         <f>B33</f>
         <v>1E-3</v>
       </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -822,6 +874,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/lidar_settings.xlsx
+++ b/lidar_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\Documents\2019Host\neo\LiDAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7073D893-FB9D-4571-806C-AF3A2E1329FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B85400E-8D88-459D-B0A6-CBA978F3CAC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{41D32DC6-A733-4811-B5BB-B5FA4829A855}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>LiDAR settings</t>
   </si>
@@ -132,9 +132,6 @@
     <t>LAS file settings</t>
   </si>
   <si>
-    <t>scale x</t>
-  </si>
-  <si>
     <t>scale y</t>
   </si>
   <si>
@@ -178,13 +175,113 @@
   </si>
   <si>
     <t>r/min</t>
+  </si>
+  <si>
+    <t>num_frames</t>
+  </si>
+  <si>
+    <t>scale_x</t>
+  </si>
+  <si>
+    <t>read_pcap_from_file.py settings:</t>
+  </si>
+  <si>
+    <t>lidar_values_and_settings.py settings:</t>
+  </si>
+  <si>
+    <t>From pcap</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">number of frames to be created from the pcap (it will read in the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n files</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>num_frames_per_las_file</t>
+  </si>
+  <si>
+    <t>packet_devisor</t>
+  </si>
+  <si>
+    <t>For quick analysis you can choose to skip every n packet from being processed</t>
+  </si>
+  <si>
+    <t>From frame files</t>
+  </si>
+  <si>
+    <t>temp_location_frame_files</t>
+  </si>
+  <si>
+    <t>./files_from_pcap/</t>
+  </si>
+  <si>
+    <t>The location for saving the las files containing only one frame each</t>
+  </si>
+  <si>
+    <t>The amount of frames to load and put together in one las file, keep in mind that this amount must be stored in memory</t>
+  </si>
+  <si>
+    <t>flight_scans</t>
+  </si>
+  <si>
+    <t>flight_ins</t>
+  </si>
+  <si>
+    <t>outfile_directory</t>
+  </si>
+  <si>
+    <t>./flight_scans/wireshark_flight_1.pcap</t>
+  </si>
+  <si>
+    <t>./flight_ins/export_flight01_20.08.19_all.txt</t>
+  </si>
+  <si>
+    <t>./processed_las/garbage/</t>
+  </si>
+  <si>
+    <t>The path fields accept relative and absolute paths, but only in unix syntax</t>
+  </si>
+  <si>
+    <t>If the path fields are left empty, or the path dir or file doesn't exist, the program will prompt you for manual selection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +298,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,16 +662,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5E462F-5D4E-489F-A29E-C545ED798189}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -585,6 +690,9 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
       <c r="S4" t="s">
         <v>26</v>
       </c>
@@ -605,7 +713,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s">
         <v>16</v>
@@ -619,13 +727,13 @@
         <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -638,6 +746,9 @@
       <c r="D8" t="s">
         <v>29</v>
       </c>
+      <c r="S8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -702,7 +813,7 @@
         <v>-35.5</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,7 +824,7 @@
         <v>51.9</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,7 +835,7 @@
         <v>215.7</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,7 +846,7 @@
         <v>270</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,7 +857,7 @@
         <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,12 +884,15 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
@@ -786,90 +900,180 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>1E-3</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <f>B33</f>
         <v>1E-3</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <f>B33</f>
         <v>1E-3</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <f>10^6</f>
         <v>1000000</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <f>B37</f>
         <v>1000000</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <f>B37</f>
         <v>1000000</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f>B51*200</f>
+        <v>200</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/lidar_settings.xlsx
+++ b/lidar_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\Documents\2019Host\neo\LiDAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B85400E-8D88-459D-B0A6-CBA978F3CAC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D376A3B-6034-43F3-9575-18D4DCB0512C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{41D32DC6-A733-4811-B5BB-B5FA4829A855}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lidar_settings.xlsx
+++ b/lidar_settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\Documents\2019Host\neo\LiDAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D376A3B-6034-43F3-9575-18D4DCB0512C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E29C89-DF9B-4731-AC2A-4E6E91DE13D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{41D32DC6-A733-4811-B5BB-B5FA4829A855}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>LiDAR settings</t>
   </si>
@@ -268,13 +268,31 @@
     <t>./flight_ins/export_flight01_20.08.19_all.txt</t>
   </si>
   <si>
-    <t>./processed_las/garbage/</t>
-  </si>
-  <si>
     <t>The path fields accept relative and absolute paths, but only in unix syntax</t>
   </si>
   <si>
     <t>If the path fields are left empty, or the path dir or file doesn't exist, the program will prompt you for manual selection</t>
+  </si>
+  <si>
+    <t>./processed_las/rotation_matrix_from_excel/</t>
+  </si>
+  <si>
+    <t>Rotates yaw first</t>
+  </si>
+  <si>
+    <t>Pitch secondly</t>
+  </si>
+  <si>
+    <t>Roll third</t>
+  </si>
+  <si>
+    <t>If this value is 1, files in the temp_location_frame_files will be processed. Set to 0 to not run</t>
+  </si>
+  <si>
+    <t>If this value is 1, PCAP files will be processed into frame_files. Set to 0 to not run</t>
+  </si>
+  <si>
+    <t>Separate files on laser id</t>
   </si>
 </sst>
 </file>
@@ -662,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5E462F-5D4E-489F-A29E-C545ED798189}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="S8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -843,10 +861,13 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,6 +880,9 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -869,6 +893,9 @@
       </c>
       <c r="C22" t="s">
         <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,7 +936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -923,7 +950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -935,7 +962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -947,7 +974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -962,7 +989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -974,7 +1001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -986,31 +1013,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
       <c r="D46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -1018,7 +1051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -1029,7 +1062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1040,7 +1073,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -1051,12 +1084,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1068,12 +1107,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
-      <c r="B56" t="s">
-        <v>67</v>
+      <c r="E56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
